--- a/Projet/Benchmarks.xlsx
+++ b/Projet/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\Programmation\CUDA\Projet\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6685EC58-0993-4B17-A0F8-9FCC76F5649E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBDAE0-4328-4EBD-8264-888245ECC6DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7296A1B9-D3D8-443E-8E7D-893193B0D30B}"/>
   </bookViews>

--- a/Projet/Benchmarks.xlsx
+++ b/Projet/Benchmarks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\Programmation\CUDA\Projet\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\space\source\repos\cudaImage\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBDAE0-4328-4EBD-8264-888245ECC6DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F500EF-A78D-4B44-AD38-7727A54D4A9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7296A1B9-D3D8-443E-8E7D-893193B0D30B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7296A1B9-D3D8-443E-8E7D-893193B0D30B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
   <si>
     <t>Taille</t>
   </si>
@@ -104,12 +104,18 @@
   <si>
     <t>Médiane CPU</t>
   </si>
+  <si>
+    <t>Colored Sobel</t>
+  </si>
+  <si>
+    <t>Convolution Matrix</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +142,28 @@
     <font>
       <sz val="36"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -196,15 +224,6 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,11 +233,30 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,20 +572,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC5342D-06B5-437A-B36D-19FA7863A7CA}">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F56"/>
+    <sheetView tabSelected="1" topLeftCell="B201" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="46.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="16" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="16" customWidth="1"/>
     <col min="8" max="9" width="25.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="11" customWidth="1"/>
@@ -586,10 +624,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3">
@@ -599,10 +637,10 @@
         <v>185</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="3">
@@ -612,13 +650,13 @@
         <v>173</v>
       </c>
       <c r="J2" s="8"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3">
         <v>1.68</v>
       </c>
@@ -626,8 +664,8 @@
         <v>160</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="3">
         <v>2.97</v>
       </c>
@@ -635,11 +673,11 @@
         <v>148</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3">
         <v>1.1200000000000001</v>
       </c>
@@ -647,8 +685,8 @@
         <v>160</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="3">
         <v>2.3199999999999998</v>
       </c>
@@ -656,11 +694,11 @@
         <v>178</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -668,8 +706,8 @@
         <v>155</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="3">
         <v>2.94</v>
       </c>
@@ -677,11 +715,11 @@
         <v>175</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="3">
         <v>1.1399999999999999</v>
       </c>
@@ -689,8 +727,8 @@
         <v>137</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="3">
         <v>2.92</v>
       </c>
@@ -698,11 +736,11 @@
         <v>174</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3">
         <v>1.1499999999999999</v>
       </c>
@@ -710,8 +748,8 @@
         <v>186</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -719,11 +757,11 @@
         <v>160</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3">
         <v>1.19</v>
       </c>
@@ -731,8 +769,8 @@
         <v>172</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="3">
         <v>3.57</v>
       </c>
@@ -740,11 +778,11 @@
         <v>152</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="3">
         <v>1.53</v>
       </c>
@@ -752,8 +790,8 @@
         <v>174</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="3">
         <v>2.99</v>
       </c>
@@ -761,11 +799,11 @@
         <v>213</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="3">
         <v>1.18</v>
       </c>
@@ -773,8 +811,8 @@
         <v>183</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="3">
         <v>2.8</v>
       </c>
@@ -782,11 +820,11 @@
         <v>162</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3">
         <v>1.29</v>
       </c>
@@ -794,8 +832,8 @@
         <v>140</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="3">
         <v>3.29</v>
       </c>
@@ -803,11 +841,11 @@
         <v>177</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5">
@@ -819,8 +857,8 @@
         <v>166</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="5">
@@ -832,11 +870,11 @@
         <v>173.5</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3">
@@ -845,8 +883,8 @@
       <c r="D13" s="3">
         <v>192</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="3">
@@ -855,182 +893,182 @@
       <c r="I13" s="3">
         <v>171</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="3">
         <v>1.47</v>
       </c>
       <c r="D14" s="3">
         <v>163</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="3">
         <v>2.1800000000000002</v>
       </c>
       <c r="I14" s="3">
         <v>238</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="3">
         <v>1.64</v>
       </c>
       <c r="D15" s="3">
         <v>166</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="3">
         <v>2.96</v>
       </c>
       <c r="I15" s="3">
         <v>179</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="3">
         <v>1.1399999999999999</v>
       </c>
       <c r="D16" s="3">
         <v>175</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="3">
         <v>2.5299999999999998</v>
       </c>
       <c r="I16" s="3">
         <v>170</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="3">
         <v>1.1599999999999999</v>
       </c>
       <c r="D17" s="3">
         <v>159</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="3">
         <v>2.16</v>
       </c>
       <c r="I17" s="3">
         <v>189</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="3">
         <v>1.25</v>
       </c>
       <c r="D18" s="3">
         <v>170</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="3">
         <v>2.2400000000000002</v>
       </c>
       <c r="I18" s="3">
         <v>156</v>
       </c>
-      <c r="K18" s="14"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3">
         <v>1.1399999999999999</v>
       </c>
       <c r="D19" s="3">
         <v>165</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="3">
         <v>2.5</v>
       </c>
       <c r="I19" s="3">
         <v>148</v>
       </c>
-      <c r="K19" s="14"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3">
         <v>1.61</v>
       </c>
       <c r="D20" s="3">
         <v>143</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="3">
         <v>2.57</v>
       </c>
       <c r="I20" s="3">
         <v>181</v>
       </c>
-      <c r="K20" s="14"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="3">
         <v>1.27</v>
       </c>
       <c r="D21" s="3">
         <v>166</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="3">
         <v>2.34</v>
       </c>
       <c r="I21" s="3">
         <v>189</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3">
         <v>1.33</v>
       </c>
       <c r="D22" s="3">
         <v>148</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="3">
         <v>2.58</v>
       </c>
       <c r="I22" s="3">
         <v>169</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="5">
@@ -1042,8 +1080,8 @@
         <v>165.5</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="5">
@@ -1055,11 +1093,11 @@
         <v>175</v>
       </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3">
@@ -1068,8 +1106,8 @@
       <c r="D24" s="3">
         <v>170</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="3">
@@ -1078,184 +1116,184 @@
       <c r="I24" s="3">
         <v>174</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="3">
         <v>1.1599999999999999</v>
       </c>
       <c r="D25" s="3">
         <v>194</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="3">
         <v>2.16</v>
       </c>
       <c r="I25" s="3">
         <v>162</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3">
         <v>1.51</v>
       </c>
       <c r="D26" s="3">
         <v>158</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="3">
         <v>3.1</v>
       </c>
       <c r="I26" s="3">
         <v>179</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="3">
         <v>1.02</v>
       </c>
       <c r="D27" s="3">
         <v>179</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="I27" s="3">
         <v>159</v>
       </c>
-      <c r="K27" s="14"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="3">
         <v>1.68</v>
       </c>
       <c r="D28" s="3">
         <v>183</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="3">
         <v>2.96</v>
       </c>
       <c r="I28" s="3">
         <v>208</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3">
         <v>1.41</v>
       </c>
       <c r="D29" s="3">
         <v>181</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="3">
         <v>2.06</v>
       </c>
       <c r="I29" s="3">
         <v>170</v>
       </c>
-      <c r="K29" s="14"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3">
         <v>1.07</v>
       </c>
       <c r="D30" s="3">
         <v>144</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="3">
         <v>2.2799999999999998</v>
       </c>
       <c r="I30" s="3">
         <v>174</v>
       </c>
-      <c r="K30" s="14"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="3">
         <v>1.29</v>
       </c>
       <c r="D31" s="3">
         <v>171</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="3">
         <v>3.04</v>
       </c>
       <c r="I31" s="3">
         <v>156</v>
       </c>
-      <c r="K31" s="14"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="3">
         <v>1.19</v>
       </c>
       <c r="D32" s="3">
         <v>167</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="3">
         <v>2.16</v>
       </c>
       <c r="I32" s="3">
         <v>189</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="3">
         <v>1.17</v>
       </c>
       <c r="D33" s="3">
         <v>145</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="3">
         <v>2.1800000000000002</v>
       </c>
       <c r="I33" s="3">
         <v>146</v>
       </c>
-      <c r="K33" s="14"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="5">
@@ -1267,8 +1305,8 @@
         <v>170.5</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="21"/>
+      <c r="G34" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H34" s="5">
@@ -1280,11 +1318,11 @@
         <v>172</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="3">
@@ -1293,8 +1331,8 @@
       <c r="D35" s="3">
         <v>155</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="3">
@@ -1303,182 +1341,182 @@
       <c r="I35" s="3">
         <v>168</v>
       </c>
-      <c r="K35" s="14"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="3">
         <v>1.41</v>
       </c>
       <c r="D36" s="3">
         <v>158</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="3">
         <v>3.34</v>
       </c>
       <c r="I36" s="3">
         <v>191</v>
       </c>
-      <c r="K36" s="14"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="3">
         <v>1.22</v>
       </c>
       <c r="D37" s="3">
         <v>171</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="3">
         <v>2.66</v>
       </c>
       <c r="I37" s="3">
         <v>170</v>
       </c>
-      <c r="K37" s="14"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="3">
         <v>1.42</v>
       </c>
       <c r="D38" s="3">
         <v>152</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="3">
         <v>2.73</v>
       </c>
       <c r="I38" s="3">
         <v>182</v>
       </c>
-      <c r="K38" s="14"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="3">
         <v>1.21</v>
       </c>
       <c r="D39" s="3">
         <v>173</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="3">
         <v>2.87</v>
       </c>
       <c r="I39" s="3">
         <v>167</v>
       </c>
-      <c r="K39" s="14"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="3">
         <v>1.23</v>
       </c>
       <c r="D40" s="3">
         <v>169</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="3">
         <v>2.58</v>
       </c>
       <c r="I40" s="3">
         <v>164</v>
       </c>
-      <c r="K40" s="14"/>
+      <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="3">
         <v>1.19</v>
       </c>
       <c r="D41" s="3">
         <v>174</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="3">
         <v>4.58</v>
       </c>
       <c r="I41" s="3">
         <v>180</v>
       </c>
-      <c r="K41" s="14"/>
+      <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="3">
         <v>1.67</v>
       </c>
       <c r="D42" s="3">
         <v>156</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="3">
         <v>2.52</v>
       </c>
       <c r="I42" s="3">
         <v>177</v>
       </c>
-      <c r="K42" s="14"/>
+      <c r="K42" s="18"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="3">
         <v>1.18</v>
       </c>
       <c r="D43" s="3">
         <v>173</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="16"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="I43" s="3">
         <v>162</v>
       </c>
-      <c r="K43" s="14"/>
+      <c r="K43" s="18"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="3">
         <v>1.21</v>
       </c>
       <c r="D44" s="3">
         <v>147</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="3">
         <v>3.99</v>
       </c>
       <c r="I44" s="3">
         <v>171</v>
       </c>
-      <c r="K44" s="14"/>
+      <c r="K44" s="18"/>
     </row>
     <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="5">
@@ -1489,8 +1527,8 @@
         <f>MEDIAN(D35:D44)</f>
         <v>163.5</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="17" t="s">
+      <c r="F45" s="21"/>
+      <c r="G45" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="5">
@@ -1501,165 +1539,165 @@
         <f>MEDIAN(I35:I44)</f>
         <v>170.5</v>
       </c>
-      <c r="K45" s="14"/>
+      <c r="K45" s="18"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="3">
         <v>25</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16" t="s">
+      <c r="F46" s="21"/>
+      <c r="G46" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="21"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="3">
         <v>83</v>
       </c>
-      <c r="K46" s="14"/>
+      <c r="K46" s="18"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="20"/>
       <c r="D47" s="3">
         <v>25</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="3">
         <v>83</v>
       </c>
-      <c r="K47" s="14"/>
+      <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="20"/>
       <c r="D48" s="3">
         <v>26</v>
       </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="3">
         <v>85</v>
       </c>
-      <c r="K48" s="14"/>
+      <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="20"/>
       <c r="D49" s="3">
         <v>25</v>
       </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="3">
         <v>80</v>
       </c>
-      <c r="K49" s="14"/>
+      <c r="K49" s="18"/>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="20"/>
       <c r="D50" s="3">
         <v>25</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="19"/>
       <c r="I50" s="3">
         <v>80</v>
       </c>
-      <c r="K50" s="14"/>
+      <c r="K50" s="18"/>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="20"/>
       <c r="D51" s="3">
         <v>25</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="3">
         <v>80</v>
       </c>
-      <c r="K51" s="14"/>
+      <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="20"/>
       <c r="D52" s="3">
         <v>25</v>
       </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="19"/>
       <c r="I52" s="3">
         <v>80</v>
       </c>
-      <c r="K52" s="14"/>
+      <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="20"/>
       <c r="D53" s="3">
         <v>27</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="19"/>
       <c r="I53" s="3">
         <v>85</v>
       </c>
-      <c r="K53" s="14"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="20"/>
       <c r="D54" s="3">
         <v>25</v>
       </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="3">
         <v>80</v>
       </c>
-      <c r="K54" s="14"/>
+      <c r="K54" s="18"/>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="20"/>
       <c r="D55" s="3">
         <v>25</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="3">
         <v>80</v>
       </c>
-      <c r="K55" s="14"/>
+      <c r="K55" s="18"/>
     </row>
     <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="20"/>
@@ -1667,21 +1705,21 @@
         <f>MEDIAN(D46:D55)</f>
         <v>25</v>
       </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="17" t="s">
+      <c r="F56" s="21"/>
+      <c r="G56" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="21"/>
+      <c r="H56" s="19"/>
       <c r="I56" s="5">
         <f>MEDIAN(I46:I55)</f>
         <v>80</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="18"/>
     </row>
     <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12"/>
-      <c r="B57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="B57" s="15"/>
+      <c r="G57" s="15"/>
       <c r="K57" s="13"/>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
@@ -1716,10 +1754,10 @@
       </c>
     </row>
     <row r="59" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="3">
@@ -1729,10 +1767,10 @@
         <v>208</v>
       </c>
       <c r="E59" s="8"/>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H59" s="3">
@@ -1742,11 +1780,11 @@
         <v>191</v>
       </c>
       <c r="J59" s="8"/>
-      <c r="K59" s="14"/>
+      <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="3">
         <v>3.72</v>
       </c>
@@ -1754,8 +1792,8 @@
         <v>192</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="16"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="17"/>
       <c r="H60" s="3">
         <v>2</v>
       </c>
@@ -1763,11 +1801,11 @@
         <v>204</v>
       </c>
       <c r="J60" s="8"/>
-      <c r="K60" s="14"/>
+      <c r="K60" s="18"/>
     </row>
     <row r="61" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="3">
         <v>3.71</v>
       </c>
@@ -1775,8 +1813,8 @@
         <v>184</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="16"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="3">
         <v>2.62</v>
       </c>
@@ -1784,11 +1822,11 @@
         <v>180</v>
       </c>
       <c r="J61" s="8"/>
-      <c r="K61" s="14"/>
+      <c r="K61" s="18"/>
     </row>
     <row r="62" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="3">
         <v>4.1100000000000003</v>
       </c>
@@ -1796,8 +1834,8 @@
         <v>238</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="16"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="3">
         <v>2.5099999999999998</v>
       </c>
@@ -1805,11 +1843,11 @@
         <v>203</v>
       </c>
       <c r="J62" s="8"/>
-      <c r="K62" s="14"/>
+      <c r="K62" s="18"/>
     </row>
     <row r="63" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="3">
         <v>3.38</v>
       </c>
@@ -1817,8 +1855,8 @@
         <v>192</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="16"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="3">
         <v>1.78</v>
       </c>
@@ -1826,11 +1864,11 @@
         <v>180</v>
       </c>
       <c r="J63" s="8"/>
-      <c r="K63" s="14"/>
+      <c r="K63" s="18"/>
     </row>
     <row r="64" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="3">
         <v>3.16</v>
       </c>
@@ -1838,8 +1876,8 @@
         <v>186</v>
       </c>
       <c r="E64" s="8"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="16"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="3">
         <v>1.95</v>
       </c>
@@ -1847,11 +1885,11 @@
         <v>174</v>
       </c>
       <c r="J64" s="8"/>
-      <c r="K64" s="14"/>
+      <c r="K64" s="18"/>
     </row>
     <row r="65" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="3">
         <v>4.2699999999999996</v>
       </c>
@@ -1859,8 +1897,8 @@
         <v>206</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="3">
         <v>2.2200000000000002</v>
       </c>
@@ -1868,11 +1906,11 @@
         <v>194</v>
       </c>
       <c r="J65" s="8"/>
-      <c r="K65" s="14"/>
+      <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="3">
         <v>4.0199999999999996</v>
       </c>
@@ -1880,8 +1918,8 @@
         <v>209</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="16"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="17"/>
       <c r="H66" s="3">
         <v>2.0299999999999998</v>
       </c>
@@ -1889,11 +1927,11 @@
         <v>202</v>
       </c>
       <c r="J66" s="8"/>
-      <c r="K66" s="14"/>
+      <c r="K66" s="18"/>
     </row>
     <row r="67" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="3">
         <v>5.51</v>
       </c>
@@ -1901,8 +1939,8 @@
         <v>223</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="16"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="3">
         <v>2.46</v>
       </c>
@@ -1910,11 +1948,11 @@
         <v>174</v>
       </c>
       <c r="J67" s="8"/>
-      <c r="K67" s="14"/>
+      <c r="K67" s="18"/>
     </row>
     <row r="68" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="3">
         <v>3.15</v>
       </c>
@@ -1922,8 +1960,8 @@
         <v>168</v>
       </c>
       <c r="E68" s="8"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="16"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="3">
         <v>2.93</v>
       </c>
@@ -1931,11 +1969,11 @@
         <v>184</v>
       </c>
       <c r="J68" s="8"/>
-      <c r="K68" s="14"/>
+      <c r="K68" s="18"/>
     </row>
     <row r="69" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="15"/>
-      <c r="B69" s="17" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="5">
@@ -1947,8 +1985,8 @@
         <v>199</v>
       </c>
       <c r="E69" s="8"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="17" t="s">
+      <c r="F69" s="21"/>
+      <c r="G69" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H69" s="5">
@@ -1960,11 +1998,11 @@
         <v>187.5</v>
       </c>
       <c r="J69" s="8"/>
-      <c r="K69" s="14"/>
+      <c r="K69" s="18"/>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="3">
@@ -1973,8 +2011,8 @@
       <c r="D70" s="3">
         <v>198</v>
       </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="16" t="s">
+      <c r="F70" s="21"/>
+      <c r="G70" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H70" s="3">
@@ -1983,182 +2021,182 @@
       <c r="I70" s="3">
         <v>201</v>
       </c>
-      <c r="K70" s="14"/>
+      <c r="K70" s="18"/>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="3">
         <v>3.93</v>
       </c>
       <c r="D71" s="3">
         <v>191</v>
       </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="16"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="3">
         <v>2.2799999999999998</v>
       </c>
       <c r="I71" s="3">
         <v>187</v>
       </c>
-      <c r="K71" s="14"/>
+      <c r="K71" s="18"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="3">
         <v>3.43</v>
       </c>
       <c r="D72" s="3">
         <v>173</v>
       </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="16"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="3">
         <v>2.71</v>
       </c>
       <c r="I72" s="3">
         <v>162</v>
       </c>
-      <c r="K72" s="14"/>
+      <c r="K72" s="18"/>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="3">
         <v>3.28</v>
       </c>
       <c r="D73" s="3">
         <v>210</v>
       </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="16"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="3">
         <v>1.83</v>
       </c>
       <c r="I73" s="3">
         <v>178</v>
       </c>
-      <c r="K73" s="14"/>
+      <c r="K73" s="18"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="3">
         <v>3.48</v>
       </c>
       <c r="D74" s="3">
         <v>171</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="16"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="3">
         <v>1.84</v>
       </c>
       <c r="I74" s="3">
         <v>173</v>
       </c>
-      <c r="K74" s="14"/>
+      <c r="K74" s="18"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="3">
         <v>2.96</v>
       </c>
       <c r="D75" s="3">
         <v>201</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="16"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="3">
         <v>1.73</v>
       </c>
       <c r="I75" s="3">
         <v>188</v>
       </c>
-      <c r="K75" s="14"/>
+      <c r="K75" s="18"/>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="3">
         <v>2.92</v>
       </c>
       <c r="D76" s="3">
         <v>188</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="16"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="3">
         <v>1.92</v>
       </c>
       <c r="I76" s="3">
         <v>191</v>
       </c>
-      <c r="K76" s="14"/>
+      <c r="K76" s="18"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="3">
         <v>2.98</v>
       </c>
       <c r="D77" s="3">
         <v>191</v>
       </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="16"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="3">
         <v>2.2599999999999998</v>
       </c>
       <c r="I77" s="3">
         <v>173</v>
       </c>
-      <c r="K77" s="14"/>
+      <c r="K77" s="18"/>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="3">
         <v>4.28</v>
       </c>
       <c r="D78" s="3">
         <v>180</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="16"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="3">
         <v>3.16</v>
       </c>
       <c r="I78" s="3">
         <v>161</v>
       </c>
-      <c r="K78" s="14"/>
+      <c r="K78" s="18"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="3">
         <v>3.96</v>
       </c>
       <c r="D79" s="3">
         <v>197</v>
       </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="16"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="3">
         <v>1.64</v>
       </c>
       <c r="I79" s="3">
         <v>158</v>
       </c>
-      <c r="K79" s="14"/>
+      <c r="K79" s="18"/>
     </row>
     <row r="80" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="17" t="s">
+      <c r="A80" s="21"/>
+      <c r="B80" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="5">
@@ -2170,8 +2208,8 @@
         <v>191</v>
       </c>
       <c r="E80" s="10"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="17" t="s">
+      <c r="F80" s="21"/>
+      <c r="G80" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H80" s="5">
@@ -2183,11 +2221,11 @@
         <v>175.5</v>
       </c>
       <c r="J80" s="10"/>
-      <c r="K80" s="14"/>
+      <c r="K80" s="18"/>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16" t="s">
+      <c r="A81" s="21"/>
+      <c r="B81" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="3">
@@ -2196,8 +2234,8 @@
       <c r="D81" s="3">
         <v>205</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="16" t="s">
+      <c r="F81" s="21"/>
+      <c r="G81" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3">
@@ -2206,182 +2244,182 @@
       <c r="I81" s="3">
         <v>215</v>
       </c>
-      <c r="K81" s="14"/>
+      <c r="K81" s="18"/>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="3">
         <v>2.85</v>
       </c>
       <c r="D82" s="3">
         <v>180</v>
       </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="16"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="3">
         <v>2.42</v>
       </c>
       <c r="I82" s="3">
         <v>180</v>
       </c>
-      <c r="K82" s="14"/>
+      <c r="K82" s="18"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="3">
         <v>2.93</v>
       </c>
       <c r="D83" s="3">
         <v>184</v>
       </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="16"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="3">
         <v>2.56</v>
       </c>
       <c r="I83" s="3">
         <v>192</v>
       </c>
-      <c r="K83" s="14"/>
+      <c r="K83" s="18"/>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="3">
         <v>3.31</v>
       </c>
       <c r="D84" s="3">
         <v>177</v>
       </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="16"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="3">
         <v>1.72</v>
       </c>
       <c r="I84" s="3">
         <v>179</v>
       </c>
-      <c r="K84" s="14"/>
+      <c r="K84" s="18"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="3">
         <v>3.18</v>
       </c>
       <c r="D85" s="3">
         <v>180</v>
       </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="16"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="17"/>
       <c r="H85" s="3">
         <v>1.76</v>
       </c>
       <c r="I85" s="3">
         <v>150</v>
       </c>
-      <c r="K85" s="14"/>
+      <c r="K85" s="18"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="3">
         <v>3.37</v>
       </c>
       <c r="D86" s="3">
         <v>191</v>
       </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="16"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="3">
         <v>2.04</v>
       </c>
       <c r="I86" s="3">
         <v>209</v>
       </c>
-      <c r="K86" s="14"/>
+      <c r="K86" s="18"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="3">
         <v>3.13</v>
       </c>
       <c r="D87" s="3">
         <v>227</v>
       </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="16"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="3">
         <v>2.14</v>
       </c>
       <c r="I87" s="3">
         <v>181</v>
       </c>
-      <c r="K87" s="14"/>
+      <c r="K87" s="18"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="3">
         <v>3.5</v>
       </c>
       <c r="D88" s="3">
         <v>168</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="16"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="3">
         <v>1.84</v>
       </c>
       <c r="I88" s="3">
         <v>197</v>
       </c>
-      <c r="K88" s="14"/>
+      <c r="K88" s="18"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="3">
         <v>3.59</v>
       </c>
       <c r="D89" s="3">
         <v>166</v>
       </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="16"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="17"/>
       <c r="H89" s="3">
         <v>2.23</v>
       </c>
       <c r="I89" s="3">
         <v>181</v>
       </c>
-      <c r="K89" s="14"/>
+      <c r="K89" s="18"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="16"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="3">
         <v>3.16</v>
       </c>
       <c r="D90" s="3">
         <v>200</v>
       </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="16"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="3">
         <v>1.65</v>
       </c>
       <c r="I90" s="3">
         <v>211</v>
       </c>
-      <c r="K90" s="14"/>
+      <c r="K90" s="18"/>
     </row>
     <row r="91" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
-      <c r="B91" s="17" t="s">
+      <c r="A91" s="21"/>
+      <c r="B91" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="5">
@@ -2393,8 +2431,8 @@
         <v>182</v>
       </c>
       <c r="E91" s="10"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="17" t="s">
+      <c r="F91" s="21"/>
+      <c r="G91" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H91" s="5">
@@ -2406,11 +2444,11 @@
         <v>186.5</v>
       </c>
       <c r="J91" s="10"/>
-      <c r="K91" s="14"/>
+      <c r="K91" s="18"/>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16" t="s">
+      <c r="A92" s="21"/>
+      <c r="B92" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="3">
@@ -2419,8 +2457,8 @@
       <c r="D92" s="3">
         <v>170</v>
       </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="16" t="s">
+      <c r="F92" s="21"/>
+      <c r="G92" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H92" s="3">
@@ -2429,182 +2467,182 @@
       <c r="I92" s="3">
         <v>196</v>
       </c>
-      <c r="K92" s="14"/>
+      <c r="K92" s="18"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="16"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="3">
         <v>3.07</v>
       </c>
       <c r="D93" s="3">
         <v>195</v>
       </c>
-      <c r="F93" s="15"/>
-      <c r="G93" s="16"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="17"/>
       <c r="H93" s="3">
         <v>1.67</v>
       </c>
       <c r="I93" s="3">
         <v>188</v>
       </c>
-      <c r="K93" s="14"/>
+      <c r="K93" s="18"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="16"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="3">
         <v>3.34</v>
       </c>
       <c r="D94" s="3">
         <v>183</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="16"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="17"/>
       <c r="H94" s="3">
         <v>1.76</v>
       </c>
       <c r="I94" s="3">
         <v>170</v>
       </c>
-      <c r="K94" s="14"/>
+      <c r="K94" s="18"/>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="16"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="3">
         <v>4.4400000000000004</v>
       </c>
       <c r="D95" s="3">
         <v>199</v>
       </c>
-      <c r="F95" s="15"/>
-      <c r="G95" s="16"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="17"/>
       <c r="H95" s="3">
         <v>1.66</v>
       </c>
       <c r="I95" s="3">
         <v>176</v>
       </c>
-      <c r="K95" s="14"/>
+      <c r="K95" s="18"/>
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="16"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="3">
         <v>3.63</v>
       </c>
       <c r="D96" s="3">
         <v>178</v>
       </c>
-      <c r="F96" s="15"/>
-      <c r="G96" s="16"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="17"/>
       <c r="H96" s="3">
         <v>1.62</v>
       </c>
       <c r="I96" s="3">
         <v>178</v>
       </c>
-      <c r="K96" s="14"/>
+      <c r="K96" s="18"/>
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="16"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="3">
         <v>3.38</v>
       </c>
       <c r="D97" s="3">
         <v>204</v>
       </c>
-      <c r="F97" s="15"/>
-      <c r="G97" s="16"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="17"/>
       <c r="H97" s="3">
         <v>2.4500000000000002</v>
       </c>
       <c r="I97" s="3">
         <v>193</v>
       </c>
-      <c r="K97" s="14"/>
+      <c r="K97" s="18"/>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="16"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="3">
         <v>3.52</v>
       </c>
       <c r="D98" s="3">
         <v>196</v>
       </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="16"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="17"/>
       <c r="H98" s="3">
         <v>1.71</v>
       </c>
       <c r="I98" s="3">
         <v>203</v>
       </c>
-      <c r="K98" s="14"/>
+      <c r="K98" s="18"/>
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="16"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="3">
         <v>3.48</v>
       </c>
       <c r="D99" s="3">
         <v>165</v>
       </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="16"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="17"/>
       <c r="H99" s="3">
         <v>2.17</v>
       </c>
       <c r="I99" s="3">
         <v>172</v>
       </c>
-      <c r="K99" s="14"/>
+      <c r="K99" s="18"/>
     </row>
     <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="3">
         <v>4.33</v>
       </c>
       <c r="D100" s="3">
         <v>194</v>
       </c>
-      <c r="F100" s="15"/>
-      <c r="G100" s="16"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="17"/>
       <c r="H100" s="3">
         <v>2.13</v>
       </c>
       <c r="I100" s="3">
         <v>197</v>
       </c>
-      <c r="K100" s="14"/>
+      <c r="K100" s="18"/>
     </row>
     <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="16"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="3">
         <v>3.07</v>
       </c>
       <c r="D101" s="3">
         <v>196</v>
       </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="16"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="17"/>
       <c r="H101" s="3">
         <v>2.89</v>
       </c>
       <c r="I101" s="3">
         <v>209</v>
       </c>
-      <c r="K101" s="14"/>
+      <c r="K101" s="18"/>
     </row>
     <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15"/>
-      <c r="B102" s="17" t="s">
+      <c r="A102" s="21"/>
+      <c r="B102" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="5">
@@ -2615,8 +2653,8 @@
         <f>MEDIAN(D92:D101)</f>
         <v>194.5</v>
       </c>
-      <c r="F102" s="15"/>
-      <c r="G102" s="17" t="s">
+      <c r="F102" s="21"/>
+      <c r="G102" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H102" s="5">
@@ -2627,193 +2665,193 @@
         <f>MEDIAN(I92:I101)</f>
         <v>190.5</v>
       </c>
-      <c r="K102" s="14"/>
+      <c r="K102" s="18"/>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="16" t="s">
+      <c r="A103" s="21"/>
+      <c r="B103" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C103" s="21"/>
+      <c r="C103" s="19"/>
       <c r="D103" s="3">
         <v>21</v>
       </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="16" t="s">
+      <c r="F103" s="21"/>
+      <c r="G103" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H103" s="21"/>
+      <c r="H103" s="19"/>
       <c r="I103" s="3">
         <v>6</v>
       </c>
-      <c r="K103" s="14"/>
+      <c r="K103" s="18"/>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="21"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="3">
         <v>21</v>
       </c>
-      <c r="F104" s="15"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="19"/>
       <c r="I104" s="3">
         <v>7</v>
       </c>
-      <c r="K104" s="14"/>
+      <c r="K104" s="18"/>
     </row>
     <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="21"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="3">
         <v>21</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="19"/>
       <c r="I105" s="3">
         <v>6</v>
       </c>
-      <c r="K105" s="14"/>
+      <c r="K105" s="18"/>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="21"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="3">
         <v>21</v>
       </c>
-      <c r="F106" s="15"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="19"/>
       <c r="I106" s="3">
         <v>7</v>
       </c>
-      <c r="K106" s="14"/>
+      <c r="K106" s="18"/>
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="21"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="3">
         <v>22</v>
       </c>
-      <c r="F107" s="15"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="19"/>
       <c r="I107" s="3">
         <v>6</v>
       </c>
-      <c r="K107" s="14"/>
+      <c r="K107" s="18"/>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="21"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="19"/>
       <c r="D108" s="3">
         <v>21</v>
       </c>
-      <c r="F108" s="15"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="19"/>
       <c r="I108" s="3">
         <v>6</v>
       </c>
-      <c r="K108" s="14"/>
+      <c r="K108" s="18"/>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="21"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="3">
         <v>22</v>
       </c>
-      <c r="F109" s="15"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="19"/>
       <c r="I109" s="3">
         <v>7</v>
       </c>
-      <c r="K109" s="14"/>
+      <c r="K109" s="18"/>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="21"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="3">
         <v>21</v>
       </c>
-      <c r="F110" s="15"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="19"/>
       <c r="I110" s="3">
         <v>6</v>
       </c>
-      <c r="K110" s="14"/>
+      <c r="K110" s="18"/>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="21"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="3">
         <v>21</v>
       </c>
-      <c r="F111" s="15"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="19"/>
       <c r="I111" s="3">
         <v>6</v>
       </c>
-      <c r="K111" s="14"/>
+      <c r="K111" s="18"/>
     </row>
     <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="21"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="3">
         <v>21</v>
       </c>
-      <c r="F112" s="15"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="19"/>
       <c r="I112" s="3">
         <v>6</v>
       </c>
-      <c r="K112" s="14"/>
+      <c r="K112" s="18"/>
     </row>
     <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15"/>
-      <c r="B113" s="17" t="s">
+      <c r="A113" s="21"/>
+      <c r="B113" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C113" s="21"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="5">
         <f>MEDIAN(D103:D112)</f>
         <v>21</v>
       </c>
-      <c r="F113" s="15"/>
-      <c r="G113" s="17" t="s">
+      <c r="F113" s="21"/>
+      <c r="G113" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H113" s="21"/>
+      <c r="H113" s="19"/>
       <c r="I113" s="5">
         <f>MEDIAN(I103:I112)</f>
         <v>6</v>
       </c>
-      <c r="K113" s="14"/>
+      <c r="K113" s="18"/>
     </row>
     <row r="114" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="12"/>
-      <c r="B114" s="18"/>
-      <c r="G114" s="18"/>
+      <c r="B114" s="15"/>
+      <c r="G114" s="15"/>
       <c r="K114" s="13"/>
     </row>
     <row r="115" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="12"/>
-      <c r="B115" s="18"/>
-      <c r="G115" s="18"/>
+      <c r="B115" s="15"/>
+      <c r="G115" s="15"/>
       <c r="K115" s="13"/>
     </row>
     <row r="116" spans="1:11" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
@@ -2848,10 +2886,10 @@
       </c>
     </row>
     <row r="117" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="3">
@@ -2861,10 +2899,10 @@
         <v>191</v>
       </c>
       <c r="E117" s="8"/>
-      <c r="F117" s="15" t="s">
+      <c r="F117" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="16" t="s">
+      <c r="G117" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H117" s="3">
@@ -2874,11 +2912,11 @@
         <v>582</v>
       </c>
       <c r="J117" s="8"/>
-      <c r="K117" s="14"/>
+      <c r="K117" s="18"/>
     </row>
     <row r="118" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="15"/>
-      <c r="B118" s="16"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="3">
         <v>19.809999999999999</v>
       </c>
@@ -2886,8 +2924,8 @@
         <v>183</v>
       </c>
       <c r="E118" s="8"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="16"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="17"/>
       <c r="H118" s="3">
         <v>377.3</v>
       </c>
@@ -2895,11 +2933,11 @@
         <v>580</v>
       </c>
       <c r="J118" s="8"/>
-      <c r="K118" s="14"/>
+      <c r="K118" s="18"/>
     </row>
     <row r="119" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="15"/>
-      <c r="B119" s="16"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="3">
         <v>15.49</v>
       </c>
@@ -2907,8 +2945,8 @@
         <v>202</v>
       </c>
       <c r="E119" s="8"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="16"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="17"/>
       <c r="H119" s="3">
         <v>371.3</v>
       </c>
@@ -2916,11 +2954,11 @@
         <v>562</v>
       </c>
       <c r="J119" s="8"/>
-      <c r="K119" s="14"/>
+      <c r="K119" s="18"/>
     </row>
     <row r="120" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="15"/>
-      <c r="B120" s="16"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="3">
         <v>18.37</v>
       </c>
@@ -2928,8 +2966,8 @@
         <v>201</v>
       </c>
       <c r="E120" s="8"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="16"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="17"/>
       <c r="H120" s="3">
         <v>428.51</v>
       </c>
@@ -2937,11 +2975,11 @@
         <v>611</v>
       </c>
       <c r="J120" s="8"/>
-      <c r="K120" s="14"/>
+      <c r="K120" s="18"/>
     </row>
     <row r="121" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="15"/>
-      <c r="B121" s="16"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="3">
         <v>15.97</v>
       </c>
@@ -2949,8 +2987,8 @@
         <v>200</v>
       </c>
       <c r="E121" s="8"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="16"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="17"/>
       <c r="H121" s="3">
         <v>373.31</v>
       </c>
@@ -2958,11 +2996,11 @@
         <v>551</v>
       </c>
       <c r="J121" s="8"/>
-      <c r="K121" s="14"/>
+      <c r="K121" s="18"/>
     </row>
     <row r="122" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="15"/>
-      <c r="B122" s="16"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="3">
         <v>15.92</v>
       </c>
@@ -2970,8 +3008,8 @@
         <v>186</v>
       </c>
       <c r="E122" s="8"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="16"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="17"/>
       <c r="H122" s="3">
         <v>453.98</v>
       </c>
@@ -2979,11 +3017,11 @@
         <v>633</v>
       </c>
       <c r="J122" s="8"/>
-      <c r="K122" s="14"/>
+      <c r="K122" s="18"/>
     </row>
     <row r="123" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="15"/>
-      <c r="B123" s="16"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="3">
         <v>19.260000000000002</v>
       </c>
@@ -2991,8 +3029,8 @@
         <v>215</v>
       </c>
       <c r="E123" s="8"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="16"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="17"/>
       <c r="H123" s="3">
         <v>374.15</v>
       </c>
@@ -3000,11 +3038,11 @@
         <v>562</v>
       </c>
       <c r="J123" s="8"/>
-      <c r="K123" s="14"/>
+      <c r="K123" s="18"/>
     </row>
     <row r="124" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="15"/>
-      <c r="B124" s="16"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="3">
         <v>16.11</v>
       </c>
@@ -3012,8 +3050,8 @@
         <v>190</v>
       </c>
       <c r="E124" s="8"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="16"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="17"/>
       <c r="H124" s="3">
         <v>367.89</v>
       </c>
@@ -3021,11 +3059,11 @@
         <v>565</v>
       </c>
       <c r="J124" s="8"/>
-      <c r="K124" s="14"/>
+      <c r="K124" s="18"/>
     </row>
     <row r="125" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="15"/>
-      <c r="B125" s="16"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="3">
         <v>22.8</v>
       </c>
@@ -3033,8 +3071,8 @@
         <v>207</v>
       </c>
       <c r="E125" s="8"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="16"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="17"/>
       <c r="H125" s="3">
         <v>386.46</v>
       </c>
@@ -3042,11 +3080,11 @@
         <v>612</v>
       </c>
       <c r="J125" s="8"/>
-      <c r="K125" s="14"/>
+      <c r="K125" s="18"/>
     </row>
     <row r="126" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="15"/>
-      <c r="B126" s="16"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="3">
         <v>18.38</v>
       </c>
@@ -3054,8 +3092,8 @@
         <v>178</v>
       </c>
       <c r="E126" s="8"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="16"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="17"/>
       <c r="H126" s="3">
         <v>402.5</v>
       </c>
@@ -3063,11 +3101,11 @@
         <v>594</v>
       </c>
       <c r="J126" s="8"/>
-      <c r="K126" s="14"/>
+      <c r="K126" s="18"/>
     </row>
     <row r="127" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="15"/>
-      <c r="B127" s="17" t="s">
+      <c r="A127" s="21"/>
+      <c r="B127" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="5">
@@ -3079,8 +3117,8 @@
         <v>195.5</v>
       </c>
       <c r="E127" s="8"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="17" t="s">
+      <c r="F127" s="21"/>
+      <c r="G127" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H127" s="5">
@@ -3092,11 +3130,11 @@
         <v>581</v>
       </c>
       <c r="J127" s="8"/>
-      <c r="K127" s="14"/>
+      <c r="K127" s="18"/>
     </row>
     <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="16" t="s">
+      <c r="A128" s="21"/>
+      <c r="B128" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="3">
@@ -3105,8 +3143,8 @@
       <c r="D128" s="3">
         <v>223</v>
       </c>
-      <c r="F128" s="15"/>
-      <c r="G128" s="16" t="s">
+      <c r="F128" s="21"/>
+      <c r="G128" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H128" s="3">
@@ -3115,182 +3153,182 @@
       <c r="I128" s="3">
         <v>557</v>
       </c>
-      <c r="K128" s="14"/>
+      <c r="K128" s="18"/>
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="B129" s="16"/>
+      <c r="A129" s="21"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="3">
         <v>16.73</v>
       </c>
       <c r="D129" s="3">
         <v>236</v>
       </c>
-      <c r="F129" s="15"/>
-      <c r="G129" s="16"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="17"/>
       <c r="H129" s="3">
         <v>423.4</v>
       </c>
       <c r="I129" s="3">
         <v>602</v>
       </c>
-      <c r="K129" s="14"/>
+      <c r="K129" s="18"/>
     </row>
     <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="3">
         <v>19.100000000000001</v>
       </c>
       <c r="D130" s="3">
         <v>203</v>
       </c>
-      <c r="F130" s="15"/>
-      <c r="G130" s="16"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="17"/>
       <c r="H130" s="3">
         <v>421.44</v>
       </c>
       <c r="I130" s="3">
         <v>610</v>
       </c>
-      <c r="K130" s="14"/>
+      <c r="K130" s="18"/>
     </row>
     <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-      <c r="B131" s="16"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="3">
         <v>21.24</v>
       </c>
       <c r="D131" s="3">
         <v>237</v>
       </c>
-      <c r="F131" s="15"/>
-      <c r="G131" s="16"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="17"/>
       <c r="H131" s="3">
         <v>351.54</v>
       </c>
       <c r="I131" s="3">
         <v>544</v>
       </c>
-      <c r="K131" s="14"/>
+      <c r="K131" s="18"/>
     </row>
     <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
-      <c r="B132" s="16"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="3">
         <v>18.559999999999999</v>
       </c>
       <c r="D132" s="3">
         <v>214</v>
       </c>
-      <c r="F132" s="15"/>
-      <c r="G132" s="16"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="17"/>
       <c r="H132" s="3">
         <v>365.45</v>
       </c>
       <c r="I132" s="3">
         <v>572</v>
       </c>
-      <c r="K132" s="14"/>
+      <c r="K132" s="18"/>
     </row>
     <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="16"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="3">
         <v>17.22</v>
       </c>
       <c r="D133" s="3">
         <v>234</v>
       </c>
-      <c r="F133" s="15"/>
-      <c r="G133" s="16"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="17"/>
       <c r="H133" s="3">
         <v>362</v>
       </c>
       <c r="I133" s="3">
         <v>564</v>
       </c>
-      <c r="K133" s="14"/>
+      <c r="K133" s="18"/>
     </row>
     <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="16"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="3">
         <v>18.100000000000001</v>
       </c>
       <c r="D134" s="3">
         <v>191</v>
       </c>
-      <c r="F134" s="15"/>
-      <c r="G134" s="16"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="17"/>
       <c r="H134" s="3">
         <v>464.17</v>
       </c>
       <c r="I134" s="3">
         <v>696</v>
       </c>
-      <c r="K134" s="14"/>
+      <c r="K134" s="18"/>
     </row>
     <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="B135" s="16"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="3">
         <v>14.72</v>
       </c>
       <c r="D135" s="3">
         <v>227</v>
       </c>
-      <c r="F135" s="15"/>
-      <c r="G135" s="16"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="17"/>
       <c r="H135" s="3">
         <v>357.41</v>
       </c>
       <c r="I135" s="3">
         <v>571</v>
       </c>
-      <c r="K135" s="14"/>
+      <c r="K135" s="18"/>
     </row>
     <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
-      <c r="B136" s="16"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="3">
         <v>17.5</v>
       </c>
       <c r="D136" s="3">
         <v>214</v>
       </c>
-      <c r="F136" s="15"/>
-      <c r="G136" s="16"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="17"/>
       <c r="H136" s="3">
         <v>355.55</v>
       </c>
       <c r="I136" s="3">
         <v>503</v>
       </c>
-      <c r="K136" s="14"/>
+      <c r="K136" s="18"/>
     </row>
     <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-      <c r="B137" s="16"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="3">
         <v>14.41</v>
       </c>
       <c r="D137" s="3">
         <v>198</v>
       </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="16"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="17"/>
       <c r="H137" s="3">
         <v>341.8</v>
       </c>
       <c r="I137" s="3">
         <v>523</v>
       </c>
-      <c r="K137" s="14"/>
+      <c r="K137" s="18"/>
     </row>
     <row r="138" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="15"/>
-      <c r="B138" s="17" t="s">
+      <c r="A138" s="21"/>
+      <c r="B138" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="5">
@@ -3302,8 +3340,8 @@
         <v>218.5</v>
       </c>
       <c r="E138" s="10"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="17" t="s">
+      <c r="F138" s="21"/>
+      <c r="G138" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H138" s="5">
@@ -3315,11 +3353,11 @@
         <v>567.5</v>
       </c>
       <c r="J138" s="10"/>
-      <c r="K138" s="14"/>
+      <c r="K138" s="18"/>
     </row>
     <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
-      <c r="B139" s="16" t="s">
+      <c r="A139" s="21"/>
+      <c r="B139" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C139" s="3">
@@ -3328,8 +3366,8 @@
       <c r="D139" s="3">
         <v>219</v>
       </c>
-      <c r="F139" s="15"/>
-      <c r="G139" s="16" t="s">
+      <c r="F139" s="21"/>
+      <c r="G139" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H139" s="3">
@@ -3338,182 +3376,182 @@
       <c r="I139" s="3">
         <v>554</v>
       </c>
-      <c r="K139" s="14"/>
+      <c r="K139" s="18"/>
     </row>
     <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
-      <c r="B140" s="16"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="3">
         <v>14.48</v>
       </c>
       <c r="D140" s="3">
         <v>196</v>
       </c>
-      <c r="F140" s="15"/>
-      <c r="G140" s="16"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="17"/>
       <c r="H140" s="3">
         <v>360.93</v>
       </c>
       <c r="I140" s="3">
         <v>553</v>
       </c>
-      <c r="K140" s="14"/>
+      <c r="K140" s="18"/>
     </row>
     <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="B141" s="16"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="3">
         <v>14.7</v>
       </c>
       <c r="D141" s="3">
         <v>226</v>
       </c>
-      <c r="F141" s="15"/>
-      <c r="G141" s="16"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="17"/>
       <c r="H141" s="3">
         <v>348.15</v>
       </c>
       <c r="I141" s="3">
         <v>527</v>
       </c>
-      <c r="K141" s="14"/>
+      <c r="K141" s="18"/>
     </row>
     <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
-      <c r="B142" s="16"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="3">
         <v>14.77</v>
       </c>
       <c r="D142" s="3">
         <v>200</v>
       </c>
-      <c r="F142" s="15"/>
-      <c r="G142" s="16"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="17"/>
       <c r="H142" s="3">
         <v>343.72</v>
       </c>
       <c r="I142" s="3">
         <v>529</v>
       </c>
-      <c r="K142" s="14"/>
+      <c r="K142" s="18"/>
     </row>
     <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="17"/>
       <c r="C143" s="3">
         <v>17.2</v>
       </c>
       <c r="D143" s="3">
         <v>199</v>
       </c>
-      <c r="F143" s="15"/>
-      <c r="G143" s="16"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="17"/>
       <c r="H143" s="3">
         <v>345.93</v>
       </c>
       <c r="I143" s="3">
         <v>525</v>
       </c>
-      <c r="K143" s="14"/>
+      <c r="K143" s="18"/>
     </row>
     <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-      <c r="B144" s="16"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="17"/>
       <c r="C144" s="3">
         <v>14.19</v>
       </c>
       <c r="D144" s="3">
         <v>203</v>
       </c>
-      <c r="F144" s="15"/>
-      <c r="G144" s="16"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="17"/>
       <c r="H144" s="3">
         <v>338.32</v>
       </c>
       <c r="I144" s="3">
         <v>521</v>
       </c>
-      <c r="K144" s="14"/>
+      <c r="K144" s="18"/>
     </row>
     <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="B145" s="16"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="3">
         <v>14.01</v>
       </c>
       <c r="D145" s="3">
         <v>221</v>
       </c>
-      <c r="F145" s="15"/>
-      <c r="G145" s="16"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="17"/>
       <c r="H145" s="3">
         <v>333.26</v>
       </c>
       <c r="I145" s="3">
         <v>491</v>
       </c>
-      <c r="K145" s="14"/>
+      <c r="K145" s="18"/>
     </row>
     <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="B146" s="16"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="17"/>
       <c r="C146" s="3">
         <v>20.3</v>
       </c>
       <c r="D146" s="3">
         <v>218</v>
       </c>
-      <c r="F146" s="15"/>
-      <c r="G146" s="16"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="17"/>
       <c r="H146" s="3">
         <v>325.47399999999999</v>
       </c>
       <c r="I146" s="3">
         <v>515</v>
       </c>
-      <c r="K146" s="14"/>
+      <c r="K146" s="18"/>
     </row>
     <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="16"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="17"/>
       <c r="C147" s="3">
         <v>18.91</v>
       </c>
       <c r="D147" s="3">
         <v>213</v>
       </c>
-      <c r="F147" s="15"/>
-      <c r="G147" s="16"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="17"/>
       <c r="H147" s="3">
         <v>386.55</v>
       </c>
       <c r="I147" s="3">
         <v>548</v>
       </c>
-      <c r="K147" s="14"/>
+      <c r="K147" s="18"/>
     </row>
     <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="16"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="17"/>
       <c r="C148" s="3">
         <v>17.37</v>
       </c>
       <c r="D148" s="3">
         <v>188</v>
       </c>
-      <c r="F148" s="15"/>
-      <c r="G148" s="16"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="17"/>
       <c r="H148" s="3">
         <v>316.58</v>
       </c>
       <c r="I148" s="3">
         <v>477</v>
       </c>
-      <c r="K148" s="14"/>
+      <c r="K148" s="18"/>
     </row>
     <row r="149" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="15"/>
-      <c r="B149" s="17" t="s">
+      <c r="A149" s="21"/>
+      <c r="B149" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="5">
@@ -3525,8 +3563,8 @@
         <v>208</v>
       </c>
       <c r="E149" s="10"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="17" t="s">
+      <c r="F149" s="21"/>
+      <c r="G149" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H149" s="5">
@@ -3538,11 +3576,11 @@
         <v>526</v>
       </c>
       <c r="J149" s="10"/>
-      <c r="K149" s="14"/>
+      <c r="K149" s="18"/>
     </row>
     <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="B150" s="16" t="s">
+      <c r="A150" s="21"/>
+      <c r="B150" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="3">
@@ -3551,8 +3589,8 @@
       <c r="D150" s="3">
         <v>222</v>
       </c>
-      <c r="F150" s="15"/>
-      <c r="G150" s="16" t="s">
+      <c r="F150" s="21"/>
+      <c r="G150" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H150" s="3">
@@ -3561,182 +3599,182 @@
       <c r="I150" s="3">
         <v>590</v>
       </c>
-      <c r="K150" s="14"/>
+      <c r="K150" s="18"/>
     </row>
     <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="B151" s="16"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="17"/>
       <c r="C151" s="3">
         <v>15.69</v>
       </c>
       <c r="D151" s="3">
         <v>198</v>
       </c>
-      <c r="F151" s="15"/>
-      <c r="G151" s="16"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="17"/>
       <c r="H151" s="3">
         <v>412.76</v>
       </c>
       <c r="I151" s="3">
         <v>613</v>
       </c>
-      <c r="K151" s="14"/>
+      <c r="K151" s="18"/>
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
-      <c r="B152" s="16"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="17"/>
       <c r="C152" s="3">
         <v>19.3</v>
       </c>
       <c r="D152" s="3">
         <v>226</v>
       </c>
-      <c r="F152" s="15"/>
-      <c r="G152" s="16"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="17"/>
       <c r="H152" s="3">
         <v>395.24</v>
       </c>
       <c r="I152" s="3">
         <v>576</v>
       </c>
-      <c r="K152" s="14"/>
+      <c r="K152" s="18"/>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="B153" s="16"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="17"/>
       <c r="C153" s="3">
         <v>18.010000000000002</v>
       </c>
       <c r="D153" s="3">
         <v>181</v>
       </c>
-      <c r="F153" s="15"/>
-      <c r="G153" s="16"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="17"/>
       <c r="H153" s="3">
         <v>356.28</v>
       </c>
       <c r="I153" s="3">
         <v>539</v>
       </c>
-      <c r="K153" s="14"/>
+      <c r="K153" s="18"/>
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="B154" s="16"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="17"/>
       <c r="C154" s="3">
         <v>15.4</v>
       </c>
       <c r="D154" s="3">
         <v>195</v>
       </c>
-      <c r="F154" s="15"/>
-      <c r="G154" s="16"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="17"/>
       <c r="H154" s="3">
         <v>363.08</v>
       </c>
       <c r="I154" s="3">
         <v>544</v>
       </c>
-      <c r="K154" s="14"/>
+      <c r="K154" s="18"/>
     </row>
     <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="B155" s="16"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="17"/>
       <c r="C155" s="3">
         <v>15.85</v>
       </c>
       <c r="D155" s="3">
         <v>203</v>
       </c>
-      <c r="F155" s="15"/>
-      <c r="G155" s="16"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="17"/>
       <c r="H155" s="3">
         <v>352.43</v>
       </c>
       <c r="I155" s="3">
         <v>541</v>
       </c>
-      <c r="K155" s="14"/>
+      <c r="K155" s="18"/>
     </row>
     <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="B156" s="16"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="17"/>
       <c r="C156" s="3">
         <v>16.809999999999999</v>
       </c>
       <c r="D156" s="3">
         <v>177</v>
       </c>
-      <c r="F156" s="15"/>
-      <c r="G156" s="16"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="17"/>
       <c r="H156" s="3">
         <v>341.41</v>
       </c>
       <c r="I156" s="3">
         <v>541</v>
       </c>
-      <c r="K156" s="14"/>
+      <c r="K156" s="18"/>
     </row>
     <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
-      <c r="B157" s="16"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="17"/>
       <c r="C157" s="3">
         <v>19.84</v>
       </c>
       <c r="D157" s="3">
         <v>207</v>
       </c>
-      <c r="F157" s="15"/>
-      <c r="G157" s="16"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="17"/>
       <c r="H157" s="3">
         <v>370.44</v>
       </c>
       <c r="I157" s="3">
         <v>555</v>
       </c>
-      <c r="K157" s="14"/>
+      <c r="K157" s="18"/>
     </row>
     <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
-      <c r="B158" s="16"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="17"/>
       <c r="C158" s="3">
         <v>15.45</v>
       </c>
       <c r="D158" s="3">
         <v>212</v>
       </c>
-      <c r="F158" s="15"/>
-      <c r="G158" s="16"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="17"/>
       <c r="H158" s="3">
         <v>370.83</v>
       </c>
       <c r="I158" s="3">
         <v>565</v>
       </c>
-      <c r="K158" s="14"/>
+      <c r="K158" s="18"/>
     </row>
     <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
-      <c r="B159" s="16"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="17"/>
       <c r="C159" s="3">
         <v>15.55</v>
       </c>
       <c r="D159" s="3">
         <v>200</v>
       </c>
-      <c r="F159" s="15"/>
-      <c r="G159" s="16"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="17"/>
       <c r="H159" s="3">
         <v>366.74</v>
       </c>
       <c r="I159" s="3">
         <v>549</v>
       </c>
-      <c r="K159" s="14"/>
+      <c r="K159" s="18"/>
     </row>
     <row r="160" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="15"/>
-      <c r="B160" s="17" t="s">
+      <c r="A160" s="21"/>
+      <c r="B160" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C160" s="5">
@@ -3747,8 +3785,8 @@
         <f>MEDIAN(D150:D159)</f>
         <v>201.5</v>
       </c>
-      <c r="F160" s="15"/>
-      <c r="G160" s="17" t="s">
+      <c r="F160" s="21"/>
+      <c r="G160" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H160" s="5">
@@ -3759,207 +3797,1267 @@
         <f>MEDIAN(I150:I159)</f>
         <v>552</v>
       </c>
-      <c r="K160" s="14"/>
+      <c r="K160" s="18"/>
     </row>
     <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
-      <c r="B161" s="16" t="s">
+      <c r="A161" s="21"/>
+      <c r="B161" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C161" s="21"/>
+      <c r="C161" s="19"/>
       <c r="D161" s="3">
         <v>496</v>
       </c>
-      <c r="F161" s="15"/>
-      <c r="G161" s="16" t="s">
+      <c r="F161" s="21"/>
+      <c r="G161" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H161" s="21"/>
+      <c r="H161" s="19"/>
       <c r="I161" s="3">
         <v>16484</v>
       </c>
-      <c r="K161" s="14"/>
+      <c r="K161" s="18"/>
     </row>
     <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="15"/>
-      <c r="B162" s="16"/>
-      <c r="C162" s="21"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="19"/>
       <c r="D162" s="3">
         <v>490</v>
       </c>
-      <c r="F162" s="15"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="19"/>
       <c r="I162" s="3">
         <v>16673</v>
       </c>
-      <c r="K162" s="14"/>
+      <c r="K162" s="18"/>
     </row>
     <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="21"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="19"/>
       <c r="D163" s="3">
         <v>505</v>
       </c>
-      <c r="F163" s="15"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="19"/>
       <c r="I163" s="3">
         <v>16576</v>
       </c>
-      <c r="K163" s="14"/>
+      <c r="K163" s="18"/>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="21"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="3">
         <v>495</v>
       </c>
-      <c r="F164" s="15"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="19"/>
       <c r="I164" s="3">
         <v>16716</v>
       </c>
-      <c r="K164" s="14"/>
+      <c r="K164" s="18"/>
     </row>
     <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
-      <c r="B165" s="16"/>
-      <c r="C165" s="21"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="19"/>
       <c r="D165" s="3">
         <v>497</v>
       </c>
-      <c r="F165" s="15"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="19"/>
       <c r="I165" s="3">
         <v>16582</v>
       </c>
-      <c r="K165" s="14"/>
+      <c r="K165" s="18"/>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
-      <c r="B166" s="16"/>
-      <c r="C166" s="21"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="19"/>
       <c r="D166" s="3">
         <v>492</v>
       </c>
-      <c r="F166" s="15"/>
-      <c r="G166" s="16"/>
-      <c r="H166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="19"/>
       <c r="I166" s="3">
         <v>16568</v>
       </c>
-      <c r="K166" s="14"/>
+      <c r="K166" s="18"/>
     </row>
     <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="21"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="19"/>
       <c r="D167" s="3">
         <v>492</v>
       </c>
-      <c r="F167" s="15"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="19"/>
       <c r="I167" s="3">
         <v>16518</v>
       </c>
-      <c r="K167" s="14"/>
+      <c r="K167" s="18"/>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-      <c r="B168" s="16"/>
-      <c r="C168" s="21"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="19"/>
       <c r="D168" s="3">
         <v>498</v>
       </c>
-      <c r="F168" s="15"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="19"/>
       <c r="I168" s="3">
         <v>16640</v>
       </c>
-      <c r="K168" s="14"/>
+      <c r="K168" s="18"/>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
-      <c r="B169" s="16"/>
-      <c r="C169" s="21"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="3">
         <v>496</v>
       </c>
-      <c r="F169" s="15"/>
-      <c r="G169" s="16"/>
-      <c r="H169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="19"/>
       <c r="I169" s="3">
         <v>16601</v>
       </c>
-      <c r="K169" s="14"/>
+      <c r="K169" s="18"/>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-      <c r="B170" s="16"/>
-      <c r="C170" s="21"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="19"/>
       <c r="D170" s="3">
         <v>491</v>
       </c>
-      <c r="F170" s="15"/>
-      <c r="G170" s="16"/>
-      <c r="H170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="19"/>
       <c r="I170" s="3">
         <v>16627</v>
       </c>
-      <c r="K170" s="14"/>
+      <c r="K170" s="18"/>
     </row>
     <row r="171" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="15"/>
-      <c r="B171" s="17" t="s">
+      <c r="A171" s="21"/>
+      <c r="B171" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C171" s="21"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="5">
         <f>MEDIAN(D161:D170)</f>
         <v>495.5</v>
       </c>
-      <c r="F171" s="15"/>
-      <c r="G171" s="17" t="s">
+      <c r="F171" s="21"/>
+      <c r="G171" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H171" s="21"/>
+      <c r="H171" s="19"/>
       <c r="I171" s="5">
         <f>MEDIAN(I161:I170)</f>
         <v>16591.5</v>
       </c>
-      <c r="K171" s="14"/>
+      <c r="K171" s="18"/>
     </row>
     <row r="172" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A172" s="12"/>
-      <c r="B172" s="18"/>
-      <c r="G172" s="18"/>
+      <c r="B172" s="15"/>
+      <c r="G172" s="15"/>
       <c r="K172" s="13"/>
     </row>
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="3">
+        <v>44.12</v>
+      </c>
+      <c r="D174" s="3">
+        <v>255</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G174" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="I174" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="21"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="3">
+        <v>44.72</v>
+      </c>
+      <c r="D175" s="3">
+        <v>248</v>
+      </c>
+      <c r="F175" s="21"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="3">
+        <v>64.89</v>
+      </c>
+      <c r="I175" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="21"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="3">
+        <v>43.95</v>
+      </c>
+      <c r="D176" s="3">
+        <v>227</v>
+      </c>
+      <c r="F176" s="21"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="3">
+        <v>65.08</v>
+      </c>
+      <c r="I176" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="21"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="3">
+        <v>46.16</v>
+      </c>
+      <c r="D177" s="3">
+        <v>239</v>
+      </c>
+      <c r="F177" s="21"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="3">
+        <v>69.36</v>
+      </c>
+      <c r="I177" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="21"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="3">
+        <v>44.36</v>
+      </c>
+      <c r="D178" s="3">
+        <v>229</v>
+      </c>
+      <c r="F178" s="21"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="3">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="I178" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="21"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="3">
+        <v>46.28</v>
+      </c>
+      <c r="D179" s="3">
+        <v>240</v>
+      </c>
+      <c r="F179" s="21"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="3">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="I179" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="21"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="3">
+        <v>44.44</v>
+      </c>
+      <c r="D180" s="3">
+        <v>249</v>
+      </c>
+      <c r="F180" s="21"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="3">
+        <v>66.42</v>
+      </c>
+      <c r="I180" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="21"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="3">
+        <v>46.54</v>
+      </c>
+      <c r="D181" s="3">
+        <v>241</v>
+      </c>
+      <c r="F181" s="21"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="3">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="I181" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="21"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="3">
+        <v>45.28</v>
+      </c>
+      <c r="D182" s="3">
+        <v>234</v>
+      </c>
+      <c r="F182" s="21"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="3">
+        <v>66.84</v>
+      </c>
+      <c r="I182" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="21"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="3">
+        <v>44.96</v>
+      </c>
+      <c r="D183" s="3">
+        <v>260</v>
+      </c>
+      <c r="F183" s="21"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="I183" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="21"/>
+      <c r="B184" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="5">
+        <f>MEDIAN(C174:C183)</f>
+        <v>44.84</v>
+      </c>
+      <c r="D184" s="5">
+        <f>MEDIAN(D174:D183)</f>
+        <v>240.5</v>
+      </c>
+      <c r="F184" s="21"/>
+      <c r="G184" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="5">
+        <f>MEDIAN(H174:H183)</f>
+        <v>65.555000000000007</v>
+      </c>
+      <c r="I184" s="5">
+        <f>MEDIAN(I174:I183)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="21"/>
+      <c r="B185" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="3">
+        <v>43.96</v>
+      </c>
+      <c r="D185" s="3">
+        <v>236</v>
+      </c>
+      <c r="F185" s="21"/>
+      <c r="G185" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H185" s="3">
+        <v>62.84</v>
+      </c>
+      <c r="I185" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="21"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="3">
+        <v>44.13</v>
+      </c>
+      <c r="D186" s="3">
+        <v>246</v>
+      </c>
+      <c r="F186" s="21"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="3">
+        <v>63.4</v>
+      </c>
+      <c r="I186" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="21"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="3">
+        <v>44.56</v>
+      </c>
+      <c r="D187" s="3">
+        <v>231</v>
+      </c>
+      <c r="F187" s="21"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="3">
+        <v>63.89</v>
+      </c>
+      <c r="I187" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="21"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="3">
+        <v>44.83</v>
+      </c>
+      <c r="D188" s="3">
+        <v>256</v>
+      </c>
+      <c r="F188" s="21"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="3">
+        <v>66.739999999999995</v>
+      </c>
+      <c r="I188" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="21"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="3">
+        <v>44.76</v>
+      </c>
+      <c r="D189" s="3">
+        <v>249</v>
+      </c>
+      <c r="F189" s="21"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="3">
+        <v>64.45</v>
+      </c>
+      <c r="I189" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="21"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="3">
+        <v>44.59</v>
+      </c>
+      <c r="D190" s="3">
+        <v>239</v>
+      </c>
+      <c r="F190" s="21"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="3">
+        <v>63.1</v>
+      </c>
+      <c r="I190" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="21"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="3">
+        <v>45.44</v>
+      </c>
+      <c r="D191" s="3">
+        <v>229</v>
+      </c>
+      <c r="F191" s="21"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="3">
+        <v>62.75</v>
+      </c>
+      <c r="I191" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="21"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="3">
+        <v>45.34</v>
+      </c>
+      <c r="D192" s="3">
+        <v>241</v>
+      </c>
+      <c r="F192" s="21"/>
+      <c r="G192" s="17"/>
+      <c r="H192" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="I192" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="21"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="3">
+        <v>44.65</v>
+      </c>
+      <c r="D193" s="3">
+        <v>240</v>
+      </c>
+      <c r="F193" s="21"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="3">
+        <v>63.65</v>
+      </c>
+      <c r="I193" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="21"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="3">
+        <v>45.37</v>
+      </c>
+      <c r="D194" s="3">
+        <v>254</v>
+      </c>
+      <c r="F194" s="21"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="3">
+        <v>55.79</v>
+      </c>
+      <c r="I194" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="21"/>
+      <c r="B195" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="5">
+        <f>MEDIAN(C185:C194)</f>
+        <v>44.704999999999998</v>
+      </c>
+      <c r="D195" s="5">
+        <f>MEDIAN(D185:D194)</f>
+        <v>240.5</v>
+      </c>
+      <c r="F195" s="21"/>
+      <c r="G195" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H195" s="5">
+        <f>MEDIAN(H185:H194)</f>
+        <v>63.349999999999994</v>
+      </c>
+      <c r="I195" s="5">
+        <f>MEDIAN(I185:I194)</f>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="21"/>
+      <c r="B196" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="3">
+        <v>44.16</v>
+      </c>
+      <c r="D196" s="3">
+        <v>234</v>
+      </c>
+      <c r="F196" s="21"/>
+      <c r="G196" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H196" s="3">
+        <v>61.75</v>
+      </c>
+      <c r="I196" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="21"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="3">
+        <v>44.89</v>
+      </c>
+      <c r="D197" s="3">
+        <v>242</v>
+      </c>
+      <c r="F197" s="21"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="3">
+        <v>62.17</v>
+      </c>
+      <c r="I197" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="21"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="3">
+        <v>43.66</v>
+      </c>
+      <c r="D198" s="3">
+        <v>271</v>
+      </c>
+      <c r="F198" s="21"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="3">
+        <v>61.79</v>
+      </c>
+      <c r="I198" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="21"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="3">
+        <v>45.94</v>
+      </c>
+      <c r="D199" s="3">
+        <v>235</v>
+      </c>
+      <c r="F199" s="21"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="3">
+        <v>64.98</v>
+      </c>
+      <c r="I199" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="21"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="3">
+        <v>44.96</v>
+      </c>
+      <c r="D200" s="3">
+        <v>242</v>
+      </c>
+      <c r="F200" s="21"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="3">
+        <v>63.55</v>
+      </c>
+      <c r="I200" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="21"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="3">
+        <v>45.59</v>
+      </c>
+      <c r="D201" s="3">
+        <v>240</v>
+      </c>
+      <c r="F201" s="21"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="3">
+        <v>62.09</v>
+      </c>
+      <c r="I201" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="21"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="3">
+        <v>44.83</v>
+      </c>
+      <c r="D202" s="3">
+        <v>248</v>
+      </c>
+      <c r="F202" s="21"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="3">
+        <v>62.3</v>
+      </c>
+      <c r="I202" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="21"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="3">
+        <v>44.97</v>
+      </c>
+      <c r="D203" s="3">
+        <v>236</v>
+      </c>
+      <c r="F203" s="21"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="3">
+        <v>62.82</v>
+      </c>
+      <c r="I203" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="21"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="3">
+        <v>45.2</v>
+      </c>
+      <c r="D204" s="3">
+        <v>232</v>
+      </c>
+      <c r="F204" s="21"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="3">
+        <v>61.52</v>
+      </c>
+      <c r="I204" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="21"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="3">
+        <v>44.19</v>
+      </c>
+      <c r="D205" s="3">
+        <v>283</v>
+      </c>
+      <c r="F205" s="21"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="3">
+        <v>65.08</v>
+      </c>
+      <c r="I205" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="21"/>
+      <c r="B206" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="5">
+        <f>MEDIAN(C196:C205)</f>
+        <v>44.924999999999997</v>
+      </c>
+      <c r="D206" s="5">
+        <f>MEDIAN(D196:D205)</f>
+        <v>241</v>
+      </c>
+      <c r="F206" s="21"/>
+      <c r="G206" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H206" s="5">
+        <f>MEDIAN(H196:H205)</f>
+        <v>62.234999999999999</v>
+      </c>
+      <c r="I206" s="5">
+        <f>MEDIAN(I196:I205)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="21"/>
+      <c r="B207" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="3">
+        <v>44.91</v>
+      </c>
+      <c r="D207" s="3">
+        <v>258</v>
+      </c>
+      <c r="F207" s="21"/>
+      <c r="G207" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H207" s="3">
+        <v>65.09</v>
+      </c>
+      <c r="I207" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="21"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="3">
+        <v>44.64</v>
+      </c>
+      <c r="D208" s="3">
+        <v>244</v>
+      </c>
+      <c r="F208" s="21"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="I208" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="21"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="3">
+        <v>45.72</v>
+      </c>
+      <c r="D209" s="3">
+        <v>234</v>
+      </c>
+      <c r="F209" s="21"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="3">
+        <v>67.06</v>
+      </c>
+      <c r="I209" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="21"/>
+      <c r="B210" s="17"/>
+      <c r="C210" s="3">
+        <v>44.75</v>
+      </c>
+      <c r="D210" s="3">
+        <v>236</v>
+      </c>
+      <c r="F210" s="21"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="3">
+        <v>67.3</v>
+      </c>
+      <c r="I210" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="21"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="3">
+        <v>45.93</v>
+      </c>
+      <c r="D211" s="3">
+        <v>304</v>
+      </c>
+      <c r="F211" s="21"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="3">
+        <v>66.09</v>
+      </c>
+      <c r="I211" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="21"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="3">
+        <v>45.71</v>
+      </c>
+      <c r="D212" s="3">
+        <v>243</v>
+      </c>
+      <c r="F212" s="21"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="3">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="I212" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="21"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="D213" s="3">
+        <v>249</v>
+      </c>
+      <c r="F213" s="21"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="3">
+        <v>67.47</v>
+      </c>
+      <c r="I213" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="21"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="3">
+        <v>44.95</v>
+      </c>
+      <c r="D214" s="3">
+        <v>236</v>
+      </c>
+      <c r="F214" s="21"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="3">
+        <v>65.430000000000007</v>
+      </c>
+      <c r="I214" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="21"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="3">
+        <v>45.42</v>
+      </c>
+      <c r="D215" s="3">
+        <v>258</v>
+      </c>
+      <c r="F215" s="21"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="3">
+        <v>63.9</v>
+      </c>
+      <c r="I215" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="21"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="3">
+        <v>44.34</v>
+      </c>
+      <c r="D216" s="3">
+        <v>242</v>
+      </c>
+      <c r="F216" s="21"/>
+      <c r="G216" s="17"/>
+      <c r="H216" s="3">
+        <v>62.94</v>
+      </c>
+      <c r="I216" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="21"/>
+      <c r="B217" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="5">
+        <f>MEDIAN(C207:C216)</f>
+        <v>45.185000000000002</v>
+      </c>
+      <c r="D217" s="5">
+        <f>MEDIAN(D207:D216)</f>
+        <v>243.5</v>
+      </c>
+      <c r="F217" s="21"/>
+      <c r="G217" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H217" s="5">
+        <f>MEDIAN(H207:H216)</f>
+        <v>66.39500000000001</v>
+      </c>
+      <c r="I217" s="5">
+        <f>MEDIAN(I207:I216)</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="21"/>
+      <c r="B218" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="19"/>
+      <c r="D218" s="3">
+        <v>203</v>
+      </c>
+      <c r="F218" s="21"/>
+      <c r="G218" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="21"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="3">
+        <v>218</v>
+      </c>
+      <c r="F219" s="21"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="21"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="3">
+        <v>205</v>
+      </c>
+      <c r="F220" s="21"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="19"/>
+      <c r="I220" s="3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="21"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="3">
+        <v>218</v>
+      </c>
+      <c r="F221" s="21"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="19"/>
+      <c r="I221" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="21"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="3">
+        <v>213</v>
+      </c>
+      <c r="F222" s="21"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="19"/>
+      <c r="I222" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="21"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="3">
+        <v>214</v>
+      </c>
+      <c r="F223" s="21"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="19"/>
+      <c r="I223" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="21"/>
+      <c r="B224" s="17"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="3">
+        <v>212</v>
+      </c>
+      <c r="F224" s="21"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="19"/>
+      <c r="I224" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="21"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="3">
+        <v>200</v>
+      </c>
+      <c r="F225" s="21"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="19"/>
+      <c r="I225" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="21"/>
+      <c r="B226" s="17"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="3">
+        <v>221</v>
+      </c>
+      <c r="F226" s="21"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="19"/>
+      <c r="I226" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="21"/>
+      <c r="B227" s="17"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="3">
+        <v>209</v>
+      </c>
+      <c r="F227" s="21"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="19"/>
+      <c r="I227" s="3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="21"/>
+      <c r="B228" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" s="19"/>
+      <c r="D228" s="5">
+        <f>MEDIAN(D218:D227)</f>
+        <v>212.5</v>
+      </c>
+      <c r="F228" s="21"/>
+      <c r="G228" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H228" s="19"/>
+      <c r="I228" s="5">
+        <f>MEDIAN(I218:I227)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="23"/>
+      <c r="B229" s="24"/>
+      <c r="G229" s="24"/>
+      <c r="K229" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="71">
+    <mergeCell ref="H218:H228"/>
+    <mergeCell ref="C218:C228"/>
+    <mergeCell ref="F174:F228"/>
+    <mergeCell ref="G174:G183"/>
+    <mergeCell ref="G185:G194"/>
+    <mergeCell ref="G196:G205"/>
+    <mergeCell ref="G207:G216"/>
+    <mergeCell ref="G218:G227"/>
+    <mergeCell ref="A174:A228"/>
+    <mergeCell ref="B174:B183"/>
+    <mergeCell ref="B185:B194"/>
+    <mergeCell ref="B196:B205"/>
+    <mergeCell ref="B207:B216"/>
+    <mergeCell ref="B218:B227"/>
     <mergeCell ref="A117:A171"/>
     <mergeCell ref="F117:F171"/>
     <mergeCell ref="F59:F113"/>
     <mergeCell ref="F2:F56"/>
     <mergeCell ref="B161:B170"/>
     <mergeCell ref="C161:C171"/>
+    <mergeCell ref="A59:A113"/>
+    <mergeCell ref="A2:A56"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="B81:B90"/>
     <mergeCell ref="G161:G170"/>
     <mergeCell ref="H161:H171"/>
     <mergeCell ref="K161:K171"/>
     <mergeCell ref="B103:B112"/>
     <mergeCell ref="G103:G112"/>
     <mergeCell ref="K103:K113"/>
-    <mergeCell ref="A59:A113"/>
-    <mergeCell ref="A2:A56"/>
     <mergeCell ref="C103:C113"/>
     <mergeCell ref="H103:H113"/>
+    <mergeCell ref="B150:B159"/>
+    <mergeCell ref="G150:G159"/>
+    <mergeCell ref="K150:K160"/>
     <mergeCell ref="H46:H56"/>
     <mergeCell ref="B46:B55"/>
     <mergeCell ref="G46:G55"/>
@@ -3988,19 +5086,13 @@
     <mergeCell ref="B117:B126"/>
     <mergeCell ref="B128:B137"/>
     <mergeCell ref="B139:B148"/>
-    <mergeCell ref="B150:B159"/>
     <mergeCell ref="G117:G126"/>
     <mergeCell ref="K117:K127"/>
-    <mergeCell ref="B59:B68"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="B81:B90"/>
     <mergeCell ref="B92:B101"/>
     <mergeCell ref="G128:G137"/>
     <mergeCell ref="K128:K138"/>
     <mergeCell ref="G139:G148"/>
     <mergeCell ref="K139:K149"/>
-    <mergeCell ref="G150:G159"/>
-    <mergeCell ref="K150:K160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
